--- a/data/trans_camb/P16B97-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B97-Provincia-trans_camb.xlsx
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 0,0</t>
+          <t>-24,13; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 0,0</t>
+          <t>-7,91; 0,0</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 0,0</t>
+          <t>-24,13; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 0,0</t>
+          <t>-7,91; 0,0</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,05</t>
+          <t>0,0; 24,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,74</t>
+          <t>0,0; 24,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,53</t>
+          <t>0,0; 17,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,16</t>
+          <t>0,0; 16,52</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,41</t>
+          <t>0,0; 33,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,88</t>
+          <t>0,0; 32,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,8</t>
+          <t>0,0; 21,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,74</t>
+          <t>0,0; 19,79</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 19,72</t>
+          <t>-3,18; 21,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 13,66</t>
+          <t>-6,54; 15,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 13,08</t>
+          <t>-1,98; 13,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 12,74</t>
+          <t>-4,49; 11,69</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 25,54</t>
+          <t>-3,19; 27,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 16,33</t>
+          <t>-6,7; 18,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 15,03</t>
+          <t>-1,99; 15,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 14,6</t>
+          <t>-4,53; 13,42</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 0,0</t>
+          <t>-24,09; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 0,0</t>
+          <t>-22,98; 0,0</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 0,0</t>
+          <t>-24,09; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 0,0</t>
+          <t>-22,98; 0,0</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 0,0</t>
+          <t>-17,22; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 0,0</t>
+          <t>-8,24; 0,0</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 0,0</t>
+          <t>-17,22; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 0,0</t>
+          <t>-8,24; 0,0</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 0,0</t>
+          <t>-9,08; 0,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 0,0</t>
+          <t>-7,24; 0,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-14,33; -1,62</t>
+          <t>-15,29; -1,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,35; -0,38</t>
+          <t>-5,7; -0,39</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 0,0</t>
+          <t>-11,73; -1,15</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 0,0</t>
+          <t>-9,08; 0,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 0,0</t>
+          <t>-7,24; 0,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-14,33; -1,62</t>
+          <t>-15,29; -1,57</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-5,35; -0,38</t>
+          <t>-5,7; -0,39</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 0,0</t>
+          <t>-11,73; -1,15</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,0</t>
+          <t>-8,02; 0,0</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 0,0</t>
+          <t>-4,85; 0,0</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,0</t>
+          <t>-8,02; 0,0</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 0,0</t>
+          <t>-4,85; 0,0</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,0</t>
+          <t>-1,68; 0,0</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 0,0</t>
+          <t>-3,26; 0,0</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,1</t>
+          <t>-1,49; 3,32</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,19</t>
+          <t>-2,93; 2,51</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,72</t>
+          <t>-1,17; 1,8</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,01</t>
+          <t>-2,23; 1,28</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,0</t>
+          <t>-1,68; 0,0</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 0,0</t>
+          <t>-3,26; 0,0</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,21</t>
+          <t>-1,5; 3,44</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 2,25</t>
+          <t>-2,96; 2,58</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,75</t>
+          <t>-1,17; 1,84</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,03</t>
+          <t>-2,24; 1,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B97-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B97-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 0,0</t>
+          <t>-18,23; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 0,0</t>
+          <t>-8,06; 0,0</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 0,0</t>
+          <t>-18,23; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 0,0</t>
+          <t>-8,06; 0,0</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,97</t>
+          <t>0,0; 25,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,56</t>
+          <t>0,0; 25,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,46</t>
+          <t>0,0; 16,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,52</t>
+          <t>0,0; 16,3</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,29</t>
+          <t>0,0; 34,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,56</t>
+          <t>0,0; 33,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,18</t>
+          <t>0,0; 20,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,79</t>
+          <t>0,0; 19,48</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 21,18</t>
+          <t>-3,52; 18,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 15,42</t>
+          <t>-6,39; 15,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 13,58</t>
+          <t>-2,19; 13,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 11,69</t>
+          <t>-4,04; 14,27</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 27,32</t>
+          <t>-3,53; 23,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 18,95</t>
+          <t>-6,4; 18,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 15,84</t>
+          <t>-2,2; 16,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 13,42</t>
+          <t>-4,06; 16,88</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 0,0</t>
+          <t>-26,21; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 0,0</t>
+          <t>-22,04; 0,0</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 0,0</t>
+          <t>-26,21; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 0,0</t>
+          <t>-22,04; 0,0</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 0,0</t>
+          <t>-17,68; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 0,0</t>
+          <t>-7,96; 0,0</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 0,0</t>
+          <t>-17,68; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 0,0</t>
+          <t>-7,96; 0,0</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 0,0</t>
+          <t>-7,87; 0,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 0,0</t>
+          <t>-8,13; 0,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-15,29; -1,57</t>
+          <t>-14,59; -1,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,7; -0,39</t>
+          <t>-5,34; -0,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-11,73; -1,15</t>
+          <t>-11,74; -1,13</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 0,0</t>
+          <t>-7,87; 0,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 0,0</t>
+          <t>-8,13; 0,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,29; -1,57</t>
+          <t>-14,59; -1,55</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-5,7; -0,39</t>
+          <t>-5,34; -0,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,73; -1,15</t>
+          <t>-11,74; -1,13</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 0,0</t>
+          <t>-8,32; 0,0</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 0,0</t>
+          <t>-4,78; 0,0</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 0,0</t>
+          <t>-8,32; 0,0</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 0,0</t>
+          <t>-4,78; 0,0</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,0</t>
+          <t>-1,64; 0,0</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,0</t>
+          <t>-3,11; 0,0</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,32</t>
+          <t>-1,54; 3,2</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,51</t>
+          <t>-2,97; 1,83</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,8</t>
+          <t>-1,21; 1,87</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,28</t>
+          <t>-2,09; 1,28</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,0</t>
+          <t>-1,64; 0,0</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,0</t>
+          <t>-3,11; 0,0</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,44</t>
+          <t>-1,54; 3,34</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,58</t>
+          <t>-2,99; 1,86</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,84</t>
+          <t>-1,21; 1,92</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,3</t>
+          <t>-2,11; 1,31</t>
         </is>
       </c>
     </row>
